--- a/接口文档/后台/管理员相关接口.xlsx
+++ b/接口文档/后台/管理员相关接口.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>模块</t>
   </si>
@@ -41,6 +41,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Avenir Next"/>
+        <charset val="134"/>
+      </rPr>
       <t>userName</t>
     </r>
     <r>
@@ -70,6 +76,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Avenir Next"/>
+        <charset val="134"/>
+      </rPr>
       <t>userName</t>
     </r>
     <r>
@@ -119,7 +131,7 @@
     <t>/api/admin/adminUser/findById</t>
   </si>
   <si>
-    <t>/{id}</t>
+    <t>id</t>
   </si>
   <si>
     <t>管理员|修改</t>
@@ -128,14 +140,14 @@
     <t>/api/admin/adminUser/update</t>
   </si>
   <si>
+    <t>管理员|分页查询</t>
+  </si>
+  <si>
+    <t>/api/admin/adminUser/findAll</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Avenir Next"/>
-        <charset val="134"/>
-      </rPr>
-      <t>userName</t>
+      <t>start</t>
     </r>
     <r>
       <rPr>
@@ -153,35 +165,8 @@
         <rFont val="Avenir Next"/>
         <charset val="134"/>
       </rPr>
-      <t>password</t>
+      <t>pageSize</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Avenir Next"/>
-        <charset val="134"/>
-      </rPr>
-      <t>authLevel</t>
-    </r>
-  </si>
-  <si>
-    <t>管理员|分页查询</t>
-  </si>
-  <si>
-    <t>/api/admin/adminUser/findAll</t>
-  </si>
-  <si>
-    <t>/{start}/{pageSize}</t>
   </si>
   <si>
     <t>管理员|删除</t>
@@ -228,27 +213,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -268,67 +232,6 @@
       <color theme="1"/>
       <name val="Helvetica"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -357,7 +260,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,9 +274,91 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -412,13 +397,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,163 +541,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,47 +646,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -717,15 +663,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -755,153 +692,201 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2152,7 +2137,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.17142857142857" defaultRowHeight="13.65" customHeight="1" outlineLevelCol="4"/>
@@ -2239,30 +2224,30 @@
         <v>17</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="7"/>
     </row>
     <row r="7" ht="22.75" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>21</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="7"/>
     </row>
     <row r="8" ht="22.75" customHeight="1" spans="1:5">
       <c r="A8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>15</v>
@@ -2272,10 +2257,10 @@
     </row>
     <row r="9" ht="22.75" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>15</v>

--- a/接口文档/后台/管理员相关接口.xlsx
+++ b/接口文档/后台/管理员相关接口.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
   <si>
     <t>模块</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>参数</t>
+  </si>
+  <si>
+    <t>method</t>
   </si>
   <si>
     <t>备注</t>
@@ -67,6 +70,9 @@
       </rPr>
       <t>password</t>
     </r>
+  </si>
+  <si>
+    <t>POST</t>
   </si>
   <si>
     <t>管理员|添加用户</t>
@@ -134,6 +140,9 @@
     <t>id</t>
   </si>
   <si>
+    <t>GET</t>
+  </si>
+  <si>
     <t>管理员|修改</t>
   </si>
   <si>
@@ -147,6 +156,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Avenir Next"/>
+        <charset val="134"/>
+      </rPr>
       <t>start</t>
     </r>
     <r>
@@ -186,8 +201,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yy\-m\-d"/>
@@ -213,6 +228,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -236,10 +258,62 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Helvetica"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -260,7 +334,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,43 +342,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,21 +364,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -350,15 +373,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -397,37 +412,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,145 +574,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -652,17 +667,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,26 +693,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -717,11 +708,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -740,153 +746,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2134,22 +2149,24 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.17142857142857" defaultRowHeight="13.65" customHeight="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.17142857142857" defaultRowHeight="13.65" customHeight="1" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="16.5047619047619" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.1714285714286" style="1" customWidth="1"/>
     <col min="3" max="3" width="36.6761904761905" style="1" customWidth="1"/>
-    <col min="4" max="4" width="52.1714285714286" style="1" customWidth="1"/>
-    <col min="5" max="256" width="8.17142857142857" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5714285714286" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.6761904761905" style="1" customWidth="1"/>
+    <col min="6" max="6" width="52.1714285714286" style="1" customWidth="1"/>
+    <col min="7" max="258" width="8.17142857142857" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1" spans="1:5">
+    <row r="1" ht="31" customHeight="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2162,262 +2179,338 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" ht="22.6" customHeight="1" spans="1:5">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" ht="22.6" customHeight="1" spans="1:7">
       <c r="A2" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" ht="22.85" customHeight="1" spans="1:5">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" ht="22.85" customHeight="1" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" ht="42.8" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" ht="42.8" customHeight="1" spans="1:7">
       <c r="A4" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" ht="22.75" customHeight="1" spans="1:5">
+      <c r="E4" s="10"/>
+      <c r="F4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" ht="22.75" customHeight="1" spans="1:7">
       <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" ht="41" customHeight="1" spans="1:7">
+      <c r="A6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" ht="41" customHeight="1" spans="1:5">
-      <c r="A6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="D6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" ht="22.75" customHeight="1" spans="1:7">
+      <c r="A7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" ht="22.75" customHeight="1" spans="1:7">
+      <c r="A8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A7" s="2" t="s">
+      <c r="D8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" ht="22.75" customHeight="1" spans="1:5">
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" ht="22.75" customHeight="1" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" ht="22.75" customHeight="1" spans="1:5">
+        <v>17</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" ht="22.75" customHeight="1" spans="1:7">
       <c r="A10" s="12"/>
       <c r="B10" s="4"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" ht="22.75" customHeight="1" spans="1:5">
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" ht="22.75" customHeight="1" spans="1:7">
       <c r="A11" s="13"/>
       <c r="B11" s="2"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" ht="22.75" customHeight="1" spans="1:5">
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" ht="22.75" customHeight="1" spans="1:7">
       <c r="A12" s="12"/>
       <c r="B12" s="4"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" ht="22.75" customHeight="1" spans="1:5">
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" ht="22.75" customHeight="1" spans="1:7">
       <c r="A13" s="13"/>
       <c r="B13" s="2"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" ht="22.75" customHeight="1" spans="1:5">
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" ht="22.75" customHeight="1" spans="1:7">
       <c r="A14" s="12"/>
       <c r="B14" s="4"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" ht="22.75" customHeight="1" spans="1:5">
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" ht="22.75" customHeight="1" spans="1:7">
       <c r="A15" s="13"/>
       <c r="B15" s="2"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" ht="22.75" customHeight="1" spans="1:5">
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" ht="22.75" customHeight="1" spans="1:7">
       <c r="A16" s="12"/>
       <c r="B16" s="4"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" ht="22.75" customHeight="1" spans="1:5">
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" ht="22.75" customHeight="1" spans="1:7">
       <c r="A17" s="13"/>
       <c r="B17" s="2"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" ht="22.75" customHeight="1" spans="1:5">
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" ht="22.75" customHeight="1" spans="1:7">
       <c r="A18" s="12"/>
       <c r="B18" s="4"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" ht="22.75" customHeight="1" spans="1:5">
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" ht="22.75" customHeight="1" spans="1:7">
       <c r="A19" s="13"/>
       <c r="B19" s="2"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" ht="22.75" customHeight="1" spans="1:5">
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" ht="22.75" customHeight="1" spans="1:7">
       <c r="A20" s="12"/>
       <c r="B20" s="4"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" ht="22.75" customHeight="1" spans="1:5">
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" ht="22.75" customHeight="1" spans="1:7">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" ht="22.75" customHeight="1" spans="1:5">
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" ht="22.75" customHeight="1" spans="1:7">
       <c r="A22" s="12"/>
       <c r="B22" s="4"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" ht="22.75" customHeight="1" spans="1:5">
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" ht="22.75" customHeight="1" spans="1:7">
       <c r="A23" s="13"/>
       <c r="B23" s="2"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
-      <c r="E23" s="7"/>
-    </row>
-    <row r="24" ht="22.75" customHeight="1" spans="1:5">
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" ht="22.75" customHeight="1" spans="1:7">
       <c r="A24" s="12"/>
       <c r="B24" s="4"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" ht="22.75" customHeight="1" spans="1:5">
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" ht="22.75" customHeight="1" spans="1:7">
       <c r="A25" s="13"/>
       <c r="B25" s="2"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="7"/>
-    </row>
-    <row r="26" ht="22.75" customHeight="1" spans="1:5">
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" ht="22.75" customHeight="1" spans="1:7">
       <c r="A26" s="12"/>
       <c r="B26" s="4"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" ht="22.75" customHeight="1" spans="1:5">
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" ht="22.75" customHeight="1" spans="1:7">
       <c r="A27" s="13"/>
       <c r="B27" s="2"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="7"/>
-    </row>
-    <row r="28" ht="22.75" customHeight="1" spans="1:5">
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" ht="22.75" customHeight="1" spans="1:7">
       <c r="A28" s="12"/>
       <c r="B28" s="4"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="7"/>
-    </row>
-    <row r="29" ht="22.75" customHeight="1" spans="1:5">
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" ht="22.75" customHeight="1" spans="1:7">
       <c r="A29" s="13"/>
       <c r="B29" s="2"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
-      <c r="E29" s="7"/>
-    </row>
-    <row r="30" ht="22.5" customHeight="1" spans="1:5">
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" ht="22.5" customHeight="1" spans="1:7">
       <c r="A30" s="12"/>
       <c r="B30" s="4"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
-      <c r="E30" s="14"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B2:F2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="http://localhost:8080" tooltip="http://localhost:8080"/>
